--- a/Test Data/NEWSAVIYNT - Test Scenarios 300818.xlsx
+++ b/Test Data/NEWSAVIYNT - Test Scenarios 300818.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{8C6C7071-5E28-4C75-A6C8-43C64E567B9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{0E9709FB-6C69-45DA-96F8-579B995AC545}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12080" windowHeight="4530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12080" windowHeight="2890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Testing Scenario's " sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="279">
   <si>
     <t>SAVIYNT - User Testing Scenario's (Business)</t>
   </si>
@@ -928,6 +928,12 @@
   </si>
   <si>
     <t>Tasks get created - PROCLNT100, RROCLNT100</t>
+  </si>
+  <si>
+    <t>TSTTEN11</t>
+  </si>
+  <si>
+    <t>TSTTEN14</t>
   </si>
 </sst>
 </file>
@@ -2067,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2363,7 +2369,7 @@
         <v>80</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I6" s="44" t="s">
         <v>275</v>
@@ -2438,7 +2444,7 @@
         <v>83</v>
       </c>
       <c r="H7" s="48" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I7" s="44" t="s">
         <v>275</v>
@@ -2505,7 +2511,7 @@
         <v>83</v>
       </c>
       <c r="H8" s="48" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I8" s="44" t="s">
         <v>275</v>
@@ -2564,7 +2570,7 @@
         <v>83</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I9" s="49" t="s">
         <v>31</v>
@@ -2631,7 +2637,7 @@
         <v>83</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>275</v>
@@ -2704,7 +2710,7 @@
         <v>80</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="I11" s="77" t="s">
         <v>31</v>
